--- a/CSC3510 S2021/Lectures/JS ChaiAndHTML_JS JavaScript.xlsx
+++ b/CSC3510 S2021/Lectures/JS ChaiAndHTML_JS JavaScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="23310" windowHeight="13740"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Set up" sheetId="1" r:id="rId1"/>
@@ -5044,6 +5044,795 @@
             <a:t> 'myList Test'</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5516895" cy="3768917"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="9429750"/>
+          <a:ext cx="5516895" cy="3768917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;!DOCTYPE html&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;html&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;head&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    &lt;title&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Mocha Tests</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;/title&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    &lt;link rel="stylesheet" href="node_modules/mocha/mocha.css"&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;/head&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;body&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;div id="mocha"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;script src="node_modules/mocha/mocha.js"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;script src="node_modules/chai/chai.js"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;script&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>setup</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>'bdd'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;!-- load code you want to test here --&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;!-- load your test files here --&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;script src="js/myList.js"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;script src="tests/myListTest.js"&gt;&lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>run</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;/script&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;h2&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Hello World!</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;/h2&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;/body&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;/html&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1124923" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="9020175"/>
+          <a:ext cx="1124923" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>testRunner.html</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10019,7 +10808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A196" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AA203" sqref="AA203"/>
     </sheetView>
   </sheetViews>
@@ -10070,8 +10859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="V77" sqref="V76:V77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10085,7 +10874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
